--- a/www/IndicatorsPerCountry/Sweden_Polity2Index_TerritorialRef_1946_2012_CCode_752.xlsx
+++ b/www/IndicatorsPerCountry/Sweden_Polity2Index_TerritorialRef_1946_2012_CCode_752.xlsx
@@ -114,13 +114,13 @@
     <t>Marshall, M. G., K. Jaggers and T. R. Gurr (2015). Polity2 Index. http://hdl.handle.net/10622/HOPFWK, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_HOPFWK.xml</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_HOPFWK.xml</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_HOPFWK.ris</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_HOPFWK.ris</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_HOPFWK.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_HOPFWK.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Sweden_Polity2Index_TerritorialRef_1946_2012_CCode_752.xlsx
+++ b/www/IndicatorsPerCountry/Sweden_Polity2Index_TerritorialRef_1946_2012_CCode_752.xlsx
@@ -111,7 +111,7 @@
     <t>https://www.clio-infra.eu/IndicatorsPerCountry/Sweden_Polity2Index_TerritorialRef_1946_2012_CCode_752.xlsx</t>
   </si>
   <si>
-    <t>Marshall, M. G., K. Jaggers and T. R. Gurr (2015). Polity2 Index. http://hdl.handle.net/10622/HOPFWK, accessed via the Clio Infra website.</t>
+    <t>Marshall, M. G., K. Jaggers, and T. R. Gurr (2015). Polity2 Index. http://hdl.handle.net/10622/HOPFWK, accessed via the Clio Infra website.</t>
   </si>
   <si>
     <t>https://www.clio-infra.eu/Citations/DOI-10622_HOPFWK.xml</t>
